--- a/DRE/cap06-Workflows/VTA/IPT_ACRM_TablasDetalladaVentas_150424.xlsx
+++ b/DRE/cap06-Workflows/VTA/IPT_ACRM_TablasDetalladaVentas_150424.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" tabRatio="625" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" tabRatio="625" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Áreas_VTA" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="74">
   <si>
     <t xml:space="preserve">Identificador </t>
   </si>
@@ -225,16 +225,10 @@
     <t>Recalcular costes y actualizar en SAP</t>
   </si>
   <si>
-    <t>Dar Lista de Materiales de alta en SAP</t>
-  </si>
-  <si>
     <t>Solicitar a I+D diseño de Lista de Materiales</t>
   </si>
   <si>
     <t>Solicitar a Jorge Martínez cálculo de costes</t>
-  </si>
-  <si>
-    <t>Diseñar lista de materiales</t>
   </si>
   <si>
     <t>Estimar coste mínimo</t>
@@ -455,6 +449,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,12 +478,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,14 +774,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -798,8 +792,8 @@
       <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1081,14 +1075,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1099,8 +1093,8 @@
       <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -1124,16 +1118,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1149,7 +1143,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -1157,7 +1151,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1165,7 +1159,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -1173,7 +1167,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -1181,7 +1175,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -1205,7 +1199,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -1213,7 +1207,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -1221,7 +1215,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -1229,7 +1223,15 @@
         <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1241,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,14 +1256,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1272,15 +1274,15 @@
       <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -1290,7 +1292,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1300,7 +1302,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1310,7 +1312,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1320,7 +1322,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1350,7 +1352,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1360,7 +1362,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1370,7 +1372,7 @@
         <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1380,17 +1382,17 @@
         <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>75</v>
+      <c r="B15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1465,14 +1467,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1483,8 +1485,8 @@
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1673,14 +1675,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1691,8 +1693,8 @@
       <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -1926,14 +1928,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1944,8 +1946,8 @@
       <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
